--- a/parameters_analysis/results/parameters_results-c101.xlsx
+++ b/parameters_analysis/results/parameters_results-c101.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +456,7757 @@
         <v>0.0005345610276795526</v>
       </c>
       <c r="H2">
-        <v>1325.376818424477</v>
+        <v>1223.7737196087</v>
       </c>
       <c r="I2">
-        <v>2192.704546326761</v>
+        <v>2229.561615414873</v>
       </c>
       <c r="J2">
-        <v>3165.699116477084</v>
+        <v>3129.075409296218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H3">
+        <v>1011.766465713616</v>
+      </c>
+      <c r="I3">
+        <v>1914.561537770834</v>
+      </c>
+      <c r="J3">
+        <v>3073.768100001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H4">
+        <v>1082.496201772588</v>
+      </c>
+      <c r="I4">
+        <v>1739.058924685995</v>
+      </c>
+      <c r="J4">
+        <v>3097.501095286778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H5">
+        <v>1231.588343332221</v>
+      </c>
+      <c r="I5">
+        <v>1881.18199090823</v>
+      </c>
+      <c r="J5">
+        <v>2870.703285482879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H6">
+        <v>1102.052050502823</v>
+      </c>
+      <c r="I6">
+        <v>1743.417239787558</v>
+      </c>
+      <c r="J6">
+        <v>2737.084423687927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H7">
+        <v>1051.721605593779</v>
+      </c>
+      <c r="I7">
+        <v>1596.410881526089</v>
+      </c>
+      <c r="J7">
+        <v>2740.652885849963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H8">
+        <v>1138.545499196786</v>
+      </c>
+      <c r="I8">
+        <v>1799.410852413015</v>
+      </c>
+      <c r="J8">
+        <v>2764.69980786067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H9">
+        <v>1068.843994970254</v>
+      </c>
+      <c r="I9">
+        <v>1632.00869650473</v>
+      </c>
+      <c r="J9">
+        <v>2711.900436712077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H10">
+        <v>1149.37009417318</v>
+      </c>
+      <c r="I10">
+        <v>1618.926109269176</v>
+      </c>
+      <c r="J10">
+        <v>2668.828997468398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H11">
+        <v>1119.764729613749</v>
+      </c>
+      <c r="I11">
+        <v>1658.020494811431</v>
+      </c>
+      <c r="J11">
+        <v>3260.731046189144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H12">
+        <v>1072.42202725916</v>
+      </c>
+      <c r="I12">
+        <v>1548.547570683839</v>
+      </c>
+      <c r="J12">
+        <v>3067.719610767109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H13">
+        <v>1181.191600930236</v>
+      </c>
+      <c r="I13">
+        <v>1719.646086353111</v>
+      </c>
+      <c r="J13">
+        <v>3063.145545360489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H14">
+        <v>904.3429099993125</v>
+      </c>
+      <c r="I14">
+        <v>1260.427556257632</v>
+      </c>
+      <c r="J14">
+        <v>2772.231578627503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H15">
+        <v>989.6838044137226</v>
+      </c>
+      <c r="I15">
+        <v>1336.797291142578</v>
+      </c>
+      <c r="J15">
+        <v>2824.515729443575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H16">
+        <v>1069.686907815669</v>
+      </c>
+      <c r="I16">
+        <v>1505.20318401152</v>
+      </c>
+      <c r="J16">
+        <v>2720.485619127541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H17">
+        <v>1247.373675940333</v>
+      </c>
+      <c r="I17">
+        <v>1569.825481893384</v>
+      </c>
+      <c r="J17">
+        <v>2658.088128348103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H18">
+        <v>1060.108951372613</v>
+      </c>
+      <c r="I18">
+        <v>1387.467773270373</v>
+      </c>
+      <c r="J18">
+        <v>2672.520079574118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H19">
+        <v>1014.424729366798</v>
+      </c>
+      <c r="I19">
+        <v>1335.659493155291</v>
+      </c>
+      <c r="J19">
+        <v>2712.468360823875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H20">
+        <v>1347.876955426142</v>
+      </c>
+      <c r="I20">
+        <v>1839.344567498522</v>
+      </c>
+      <c r="J20">
+        <v>3249.138124862824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H21">
+        <v>1270.693925864742</v>
+      </c>
+      <c r="I21">
+        <v>1718.160592339923</v>
+      </c>
+      <c r="J21">
+        <v>3222.987882006466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H22">
+        <v>1177.437858176684</v>
+      </c>
+      <c r="I22">
+        <v>1693.469999091472</v>
+      </c>
+      <c r="J22">
+        <v>3118.087614651158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H23">
+        <v>1132.157057243432</v>
+      </c>
+      <c r="I23">
+        <v>1479.54968449619</v>
+      </c>
+      <c r="J23">
+        <v>2758.576543044216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.3</v>
+      </c>
+      <c r="G24">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H24">
+        <v>1174.876621875833</v>
+      </c>
+      <c r="I24">
+        <v>1532.479794493379</v>
+      </c>
+      <c r="J24">
+        <v>2883.003986299566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H25">
+        <v>1067.254886188934</v>
+      </c>
+      <c r="I25">
+        <v>1394.766135439691</v>
+      </c>
+      <c r="J25">
+        <v>2627.584094156541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H26">
+        <v>1104.036655736558</v>
+      </c>
+      <c r="I26">
+        <v>1384.204416769121</v>
+      </c>
+      <c r="J26">
+        <v>2683.684257001734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0.3</v>
+      </c>
+      <c r="G27">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H27">
+        <v>993.5193797587503</v>
+      </c>
+      <c r="I27">
+        <v>1372.316288223088</v>
+      </c>
+      <c r="J27">
+        <v>2702.069679471042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H28">
+        <v>1034.494099299388</v>
+      </c>
+      <c r="I28">
+        <v>1382.664106788031</v>
+      </c>
+      <c r="J28">
+        <v>2657.708095555869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H29">
+        <v>1041.328304959676</v>
+      </c>
+      <c r="I29">
+        <v>1809.704055569943</v>
+      </c>
+      <c r="J29">
+        <v>3113.278161106011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H30">
+        <v>852.9482006279468</v>
+      </c>
+      <c r="I30">
+        <v>1428.644615243571</v>
+      </c>
+      <c r="J30">
+        <v>3100.288616378891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H31">
+        <v>1024.166116131788</v>
+      </c>
+      <c r="I31">
+        <v>1497.655835796076</v>
+      </c>
+      <c r="J31">
+        <v>3064.777130256645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H32">
+        <v>948.2572213121581</v>
+      </c>
+      <c r="I32">
+        <v>1547.852147164785</v>
+      </c>
+      <c r="J32">
+        <v>2732.648377898597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H33">
+        <v>904.405757746678</v>
+      </c>
+      <c r="I33">
+        <v>1428.159272489277</v>
+      </c>
+      <c r="J33">
+        <v>2722.306608643812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H34">
+        <v>998.8817727687424</v>
+      </c>
+      <c r="I34">
+        <v>1417.569759939956</v>
+      </c>
+      <c r="J34">
+        <v>2812.955107497831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H35">
+        <v>1001.045394821423</v>
+      </c>
+      <c r="I35">
+        <v>1565.194377090278</v>
+      </c>
+      <c r="J35">
+        <v>2622.105714745084</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H36">
+        <v>1026.240461792282</v>
+      </c>
+      <c r="I36">
+        <v>1484.246456572994</v>
+      </c>
+      <c r="J36">
+        <v>2772.603898482932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H37">
+        <v>1015.351582181532</v>
+      </c>
+      <c r="I37">
+        <v>1308.346774310831</v>
+      </c>
+      <c r="J37">
+        <v>2718.243511709417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+      <c r="G38">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H38">
+        <v>977.8497688958997</v>
+      </c>
+      <c r="I38">
+        <v>1287.948426519368</v>
+      </c>
+      <c r="J38">
+        <v>3142.699069791239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H39">
+        <v>1125.104518570477</v>
+      </c>
+      <c r="I39">
+        <v>1461.526043511571</v>
+      </c>
+      <c r="J39">
+        <v>3148.501123848014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H40">
+        <v>1040.15799597031</v>
+      </c>
+      <c r="I40">
+        <v>1354.580887279142</v>
+      </c>
+      <c r="J40">
+        <v>3262.771102781094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H41">
+        <v>993.149740248375</v>
+      </c>
+      <c r="I41">
+        <v>1349.726678173139</v>
+      </c>
+      <c r="J41">
+        <v>2872.88741464078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H42">
+        <v>1102.99783903303</v>
+      </c>
+      <c r="I42">
+        <v>1493.40605296122</v>
+      </c>
+      <c r="J42">
+        <v>2870.836976118052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H43">
+        <v>1032.90930016513</v>
+      </c>
+      <c r="I43">
+        <v>1362.323352688712</v>
+      </c>
+      <c r="J43">
+        <v>2676.512265991877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+      <c r="G44">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H44">
+        <v>1112.398880847635</v>
+      </c>
+      <c r="I44">
+        <v>1432.902711803459</v>
+      </c>
+      <c r="J44">
+        <v>2623.731284282747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H45">
+        <v>979.7401779502686</v>
+      </c>
+      <c r="I45">
+        <v>1266.706267577105</v>
+      </c>
+      <c r="J45">
+        <v>2681.064755340275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H46">
+        <v>1076.996698280554</v>
+      </c>
+      <c r="I46">
+        <v>1326.774498468256</v>
+      </c>
+      <c r="J46">
+        <v>2683.10925991031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H47">
+        <v>1156.109434262968</v>
+      </c>
+      <c r="I47">
+        <v>1515.956794410214</v>
+      </c>
+      <c r="J47">
+        <v>3010.845498676692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.3</v>
+      </c>
+      <c r="G48">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H48">
+        <v>1217.550328510572</v>
+      </c>
+      <c r="I48">
+        <v>1519.543882737273</v>
+      </c>
+      <c r="J48">
+        <v>3027.299307163365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H49">
+        <v>1308.133591731518</v>
+      </c>
+      <c r="I49">
+        <v>1619.690585981897</v>
+      </c>
+      <c r="J49">
+        <v>3252.232331162487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H50">
+        <v>1111.170730076493</v>
+      </c>
+      <c r="I50">
+        <v>1355.295351770883</v>
+      </c>
+      <c r="J50">
+        <v>2649.547401231745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0.3</v>
+      </c>
+      <c r="G51">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H51">
+        <v>1097.151059808315</v>
+      </c>
+      <c r="I51">
+        <v>1394.15743109962</v>
+      </c>
+      <c r="J51">
+        <v>2688.632943972803</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H52">
+        <v>1223.511570974506</v>
+      </c>
+      <c r="I52">
+        <v>1517.273540900526</v>
+      </c>
+      <c r="J52">
+        <v>2751.935121444123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H53">
+        <v>1053.559116004794</v>
+      </c>
+      <c r="I53">
+        <v>1347.340912660214</v>
+      </c>
+      <c r="J53">
+        <v>2741.818339438593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>0.3</v>
+      </c>
+      <c r="G54">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H54">
+        <v>1045.002620256571</v>
+      </c>
+      <c r="I54">
+        <v>1223.047268939624</v>
+      </c>
+      <c r="J54">
+        <v>2722.108688920822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H55">
+        <v>1091.464543729597</v>
+      </c>
+      <c r="I55">
+        <v>1377.631650831502</v>
+      </c>
+      <c r="J55">
+        <v>2665.920358478114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H56">
+        <v>927.0967648863777</v>
+      </c>
+      <c r="I56">
+        <v>1572.800269903663</v>
+      </c>
+      <c r="J56">
+        <v>3116.639105374381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0.3</v>
+      </c>
+      <c r="G57">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H57">
+        <v>854.3506795943249</v>
+      </c>
+      <c r="I57">
+        <v>1282.710357895284</v>
+      </c>
+      <c r="J57">
+        <v>3176.958091464275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H58">
+        <v>951.1751213883128</v>
+      </c>
+      <c r="I58">
+        <v>1392.418913110919</v>
+      </c>
+      <c r="J58">
+        <v>3079.455549752856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0.1</v>
+      </c>
+      <c r="G59">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H59">
+        <v>995.1460893682865</v>
+      </c>
+      <c r="I59">
+        <v>1472.890970625799</v>
+      </c>
+      <c r="J59">
+        <v>2688.352348663774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0.3</v>
+      </c>
+      <c r="G60">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H60">
+        <v>940.475314525365</v>
+      </c>
+      <c r="I60">
+        <v>1307.42990997867</v>
+      </c>
+      <c r="J60">
+        <v>2801.269177818741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H61">
+        <v>924.7323022067956</v>
+      </c>
+      <c r="I61">
+        <v>1206.717009351077</v>
+      </c>
+      <c r="J61">
+        <v>2743.57172371828</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>0.1</v>
+      </c>
+      <c r="G62">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H62">
+        <v>1017.292467738589</v>
+      </c>
+      <c r="I62">
+        <v>1496.961433781986</v>
+      </c>
+      <c r="J62">
+        <v>2693.925713270845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>0.3</v>
+      </c>
+      <c r="G63">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H63">
+        <v>1029.232382947672</v>
+      </c>
+      <c r="I63">
+        <v>1433.867273333547</v>
+      </c>
+      <c r="J63">
+        <v>2605.654135105465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>0.5</v>
+      </c>
+      <c r="G64">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H64">
+        <v>1004.869108478975</v>
+      </c>
+      <c r="I64">
+        <v>1305.15507498193</v>
+      </c>
+      <c r="J64">
+        <v>2811.317055878237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0.1</v>
+      </c>
+      <c r="G65">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H65">
+        <v>1009.368711546115</v>
+      </c>
+      <c r="I65">
+        <v>1378.7161242934</v>
+      </c>
+      <c r="J65">
+        <v>3042.105171954657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0.3</v>
+      </c>
+      <c r="G66">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H66">
+        <v>973.3877735951239</v>
+      </c>
+      <c r="I66">
+        <v>1330.492798680464</v>
+      </c>
+      <c r="J66">
+        <v>3154.101909516678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H67">
+        <v>1185.544822983819</v>
+      </c>
+      <c r="I67">
+        <v>1468.756808871985</v>
+      </c>
+      <c r="J67">
+        <v>3144.040505647076</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H68">
+        <v>1012.209714034331</v>
+      </c>
+      <c r="I68">
+        <v>1312.80234979371</v>
+      </c>
+      <c r="J68">
+        <v>2704.914356765293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0.3</v>
+      </c>
+      <c r="G69">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H69">
+        <v>1006.400714200503</v>
+      </c>
+      <c r="I69">
+        <v>1235.274784858121</v>
+      </c>
+      <c r="J69">
+        <v>2797.802172238928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+      <c r="G70">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H70">
+        <v>978.6983010300963</v>
+      </c>
+      <c r="I70">
+        <v>1247.990182505007</v>
+      </c>
+      <c r="J70">
+        <v>2621.819431396586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>0.1</v>
+      </c>
+      <c r="G71">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H71">
+        <v>936.897827267392</v>
+      </c>
+      <c r="I71">
+        <v>1113.577965979903</v>
+      </c>
+      <c r="J71">
+        <v>2700.915035408981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>0.3</v>
+      </c>
+      <c r="G72">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H72">
+        <v>1013.949139346233</v>
+      </c>
+      <c r="I72">
+        <v>1256.270806446143</v>
+      </c>
+      <c r="J72">
+        <v>2630.2743100488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>0.5</v>
+      </c>
+      <c r="G73">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H73">
+        <v>1169.00989132347</v>
+      </c>
+      <c r="I73">
+        <v>1483.529658310866</v>
+      </c>
+      <c r="J73">
+        <v>2551.689112697809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H74">
+        <v>1142.376578493032</v>
+      </c>
+      <c r="I74">
+        <v>1491.675540110585</v>
+      </c>
+      <c r="J74">
+        <v>3144.966637977779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0.3</v>
+      </c>
+      <c r="G75">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H75">
+        <v>1281.315071664232</v>
+      </c>
+      <c r="I75">
+        <v>1589.12474525434</v>
+      </c>
+      <c r="J75">
+        <v>3065.784912819548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0.5</v>
+      </c>
+      <c r="G76">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H76">
+        <v>1097.976152121322</v>
+      </c>
+      <c r="I76">
+        <v>1427.529259466114</v>
+      </c>
+      <c r="J76">
+        <v>2942.631176321865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+      <c r="G77">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H77">
+        <v>851.1023920034302</v>
+      </c>
+      <c r="I77">
+        <v>1093.101814690886</v>
+      </c>
+      <c r="J77">
+        <v>2847.023315245199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0.3</v>
+      </c>
+      <c r="G78">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H78">
+        <v>972.7931129249217</v>
+      </c>
+      <c r="I78">
+        <v>1266.034730353508</v>
+      </c>
+      <c r="J78">
+        <v>2715.468702295762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0.5</v>
+      </c>
+      <c r="G79">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H79">
+        <v>1255.878206969557</v>
+      </c>
+      <c r="I79">
+        <v>1529.604729441189</v>
+      </c>
+      <c r="J79">
+        <v>2936.383608652968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>0.1</v>
+      </c>
+      <c r="G80">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H80">
+        <v>1180.761088497369</v>
+      </c>
+      <c r="I80">
+        <v>1435.431848111372</v>
+      </c>
+      <c r="J80">
+        <v>2627.783924001312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>0.3</v>
+      </c>
+      <c r="G81">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H81">
+        <v>1097.373786531404</v>
+      </c>
+      <c r="I81">
+        <v>1318.958661281799</v>
+      </c>
+      <c r="J81">
+        <v>2738.55273778235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H82">
+        <v>1175.248730463953</v>
+      </c>
+      <c r="I82">
+        <v>1465.010216403529</v>
+      </c>
+      <c r="J82">
+        <v>2672.724417135687</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0.1</v>
+      </c>
+      <c r="G83">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H83">
+        <v>1179.952930010433</v>
+      </c>
+      <c r="I83">
+        <v>2046.478985144483</v>
+      </c>
+      <c r="J83">
+        <v>3184.878536775489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0.3</v>
+      </c>
+      <c r="G84">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H84">
+        <v>1040.952179233769</v>
+      </c>
+      <c r="I84">
+        <v>1853.928321343047</v>
+      </c>
+      <c r="J84">
+        <v>3097.570591519248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.5</v>
+      </c>
+      <c r="G85">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H85">
+        <v>938.6966340161158</v>
+      </c>
+      <c r="I85">
+        <v>1674.78954972709</v>
+      </c>
+      <c r="J85">
+        <v>3135.80499916532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0.1</v>
+      </c>
+      <c r="G86">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H86">
+        <v>1030.703353399726</v>
+      </c>
+      <c r="I86">
+        <v>1779.017975031305</v>
+      </c>
+      <c r="J86">
+        <v>2758.730814874134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0.3</v>
+      </c>
+      <c r="G87">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H87">
+        <v>1036.823896841606</v>
+      </c>
+      <c r="I87">
+        <v>1642.440114036146</v>
+      </c>
+      <c r="J87">
+        <v>2874.948347884573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0.5</v>
+      </c>
+      <c r="G88">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H88">
+        <v>1027.137904741164</v>
+      </c>
+      <c r="I88">
+        <v>1543.659478295451</v>
+      </c>
+      <c r="J88">
+        <v>2911.841998418381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>0.1</v>
+      </c>
+      <c r="G89">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H89">
+        <v>1049.819592021446</v>
+      </c>
+      <c r="I89">
+        <v>1680.34084963235</v>
+      </c>
+      <c r="J89">
+        <v>2831.597116266162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>0.3</v>
+      </c>
+      <c r="G90">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H90">
+        <v>1015.642908769184</v>
+      </c>
+      <c r="I90">
+        <v>1613.817406642351</v>
+      </c>
+      <c r="J90">
+        <v>2693.585423678382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>0.5</v>
+      </c>
+      <c r="G91">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H91">
+        <v>968.3241191658965</v>
+      </c>
+      <c r="I91">
+        <v>1538.425159288964</v>
+      </c>
+      <c r="J91">
+        <v>2728.457346133517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0.1</v>
+      </c>
+      <c r="G92">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H92">
+        <v>954.6758033511674</v>
+      </c>
+      <c r="I92">
+        <v>1493.551220142141</v>
+      </c>
+      <c r="J92">
+        <v>3370.85710008459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.3</v>
+      </c>
+      <c r="G93">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H93">
+        <v>1084.394353604432</v>
+      </c>
+      <c r="I93">
+        <v>1583.14086302006</v>
+      </c>
+      <c r="J93">
+        <v>3113.925860174865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0.5</v>
+      </c>
+      <c r="G94">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H94">
+        <v>970.679018797902</v>
+      </c>
+      <c r="I94">
+        <v>1463.002375175771</v>
+      </c>
+      <c r="J94">
+        <v>3168.257048566229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0.1</v>
+      </c>
+      <c r="G95">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H95">
+        <v>855.0654433965706</v>
+      </c>
+      <c r="I95">
+        <v>1220.598821860027</v>
+      </c>
+      <c r="J95">
+        <v>2884.957033009121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>0.3</v>
+      </c>
+      <c r="G96">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H96">
+        <v>949.797857553421</v>
+      </c>
+      <c r="I96">
+        <v>1383.471703902764</v>
+      </c>
+      <c r="J96">
+        <v>3131.287302420617</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0.5</v>
+      </c>
+      <c r="G97">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H97">
+        <v>949.5663902898079</v>
+      </c>
+      <c r="I97">
+        <v>1291.931965152544</v>
+      </c>
+      <c r="J97">
+        <v>2830.796762359347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>0.1</v>
+      </c>
+      <c r="G98">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H98">
+        <v>1147.0615562158</v>
+      </c>
+      <c r="I98">
+        <v>1531.57784759568</v>
+      </c>
+      <c r="J98">
+        <v>2784.604705072375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>0.3</v>
+      </c>
+      <c r="G99">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H99">
+        <v>1016.496741139351</v>
+      </c>
+      <c r="I99">
+        <v>1350.866879664252</v>
+      </c>
+      <c r="J99">
+        <v>2860.423562788787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0.5</v>
+      </c>
+      <c r="G100">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H100">
+        <v>1039.783383384691</v>
+      </c>
+      <c r="I100">
+        <v>1373.72713040738</v>
+      </c>
+      <c r="J100">
+        <v>2703.847501423742</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0.1</v>
+      </c>
+      <c r="G101">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H101">
+        <v>1137.811065461643</v>
+      </c>
+      <c r="I101">
+        <v>1597.454647655549</v>
+      </c>
+      <c r="J101">
+        <v>3101.641294572912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0.3</v>
+      </c>
+      <c r="G102">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H102">
+        <v>1169.888009874781</v>
+      </c>
+      <c r="I102">
+        <v>1626.010784616654</v>
+      </c>
+      <c r="J102">
+        <v>3155.013820387097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0.5</v>
+      </c>
+      <c r="G103">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H103">
+        <v>1154.98295937987</v>
+      </c>
+      <c r="I103">
+        <v>1630.492337878756</v>
+      </c>
+      <c r="J103">
+        <v>3119.03486284993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0.1</v>
+      </c>
+      <c r="G104">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H104">
+        <v>914.1208479789034</v>
+      </c>
+      <c r="I104">
+        <v>1161.126928676192</v>
+      </c>
+      <c r="J104">
+        <v>2748.903050222032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>0.3</v>
+      </c>
+      <c r="G105">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H105">
+        <v>942.7924019736247</v>
+      </c>
+      <c r="I105">
+        <v>1260.238486103756</v>
+      </c>
+      <c r="J105">
+        <v>2767.318592858198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>0.5</v>
+      </c>
+      <c r="G106">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H106">
+        <v>1047.358127518697</v>
+      </c>
+      <c r="I106">
+        <v>1426.945167485228</v>
+      </c>
+      <c r="J106">
+        <v>2912.431149795746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>0.1</v>
+      </c>
+      <c r="G107">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H107">
+        <v>1093.962879840873</v>
+      </c>
+      <c r="I107">
+        <v>1454.322939798428</v>
+      </c>
+      <c r="J107">
+        <v>2685.938211817836</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0.3</v>
+      </c>
+      <c r="G108">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H108">
+        <v>1123.764291300608</v>
+      </c>
+      <c r="I108">
+        <v>1402.020574876148</v>
+      </c>
+      <c r="J108">
+        <v>2708.884141865805</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>0.5</v>
+      </c>
+      <c r="G109">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H109">
+        <v>951.9154092084261</v>
+      </c>
+      <c r="I109">
+        <v>1206.349798896692</v>
+      </c>
+      <c r="J109">
+        <v>2706.493421883987</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0.1</v>
+      </c>
+      <c r="G110">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H110">
+        <v>1004.230310352231</v>
+      </c>
+      <c r="I110">
+        <v>1686.932479478942</v>
+      </c>
+      <c r="J110">
+        <v>3163.958844639584</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0.3</v>
+      </c>
+      <c r="G111">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H111">
+        <v>891.87675060454</v>
+      </c>
+      <c r="I111">
+        <v>1483.490823511969</v>
+      </c>
+      <c r="J111">
+        <v>3311.091708360682</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.5</v>
+      </c>
+      <c r="G112">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H112">
+        <v>860.9296500389485</v>
+      </c>
+      <c r="I112">
+        <v>1335.658687856935</v>
+      </c>
+      <c r="J112">
+        <v>3233.423307492708</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>0.1</v>
+      </c>
+      <c r="G113">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H113">
+        <v>954.3331263803061</v>
+      </c>
+      <c r="I113">
+        <v>1575.026841226937</v>
+      </c>
+      <c r="J113">
+        <v>2794.878367180256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>0.3</v>
+      </c>
+      <c r="G114">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H114">
+        <v>916.5712828072745</v>
+      </c>
+      <c r="I114">
+        <v>1430.180952879291</v>
+      </c>
+      <c r="J114">
+        <v>2845.694032206717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>0.5</v>
+      </c>
+      <c r="G115">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H115">
+        <v>933.3249455194604</v>
+      </c>
+      <c r="I115">
+        <v>1247.287627962494</v>
+      </c>
+      <c r="J115">
+        <v>2872.321407930247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>0.1</v>
+      </c>
+      <c r="G116">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H116">
+        <v>960.4227463727545</v>
+      </c>
+      <c r="I116">
+        <v>1556.440089528416</v>
+      </c>
+      <c r="J116">
+        <v>2726.826072821169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0.3</v>
+      </c>
+      <c r="G117">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H117">
+        <v>1024.738158431859</v>
+      </c>
+      <c r="I117">
+        <v>1445.410734761587</v>
+      </c>
+      <c r="J117">
+        <v>2708.898983677937</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>0.5</v>
+      </c>
+      <c r="G118">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H118">
+        <v>1027.42291595399</v>
+      </c>
+      <c r="I118">
+        <v>1428.4438684912</v>
+      </c>
+      <c r="J118">
+        <v>2710.473054464072</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0.1</v>
+      </c>
+      <c r="G119">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H119">
+        <v>914.5701581766874</v>
+      </c>
+      <c r="I119">
+        <v>1255.664797724709</v>
+      </c>
+      <c r="J119">
+        <v>3145.196653296382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+      <c r="G120">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H120">
+        <v>885.2331678715788</v>
+      </c>
+      <c r="I120">
+        <v>1201.293035365215</v>
+      </c>
+      <c r="J120">
+        <v>3085.784681932539</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0.5</v>
+      </c>
+      <c r="G121">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H121">
+        <v>1016.013661451901</v>
+      </c>
+      <c r="I121">
+        <v>1330.63062969486</v>
+      </c>
+      <c r="J121">
+        <v>3254.350143430234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>50</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>0.1</v>
+      </c>
+      <c r="G122">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H122">
+        <v>878.9919450951868</v>
+      </c>
+      <c r="I122">
+        <v>1085.542419490085</v>
+      </c>
+      <c r="J122">
+        <v>2736.162327595448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>50</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>0.3</v>
+      </c>
+      <c r="G123">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H123">
+        <v>947.1265375493962</v>
+      </c>
+      <c r="I123">
+        <v>1244.804868586676</v>
+      </c>
+      <c r="J123">
+        <v>2904.370067520244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>50</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>0.5</v>
+      </c>
+      <c r="G124">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H124">
+        <v>895.4826822215002</v>
+      </c>
+      <c r="I124">
+        <v>1081.907335074389</v>
+      </c>
+      <c r="J124">
+        <v>2722.489124710372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>50</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>0.1</v>
+      </c>
+      <c r="G125">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H125">
+        <v>1076.837349982868</v>
+      </c>
+      <c r="I125">
+        <v>1372.699204207038</v>
+      </c>
+      <c r="J125">
+        <v>2784.359743658906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>50</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>0.3</v>
+      </c>
+      <c r="G126">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H126">
+        <v>957.0020861567962</v>
+      </c>
+      <c r="I126">
+        <v>1175.295716429946</v>
+      </c>
+      <c r="J126">
+        <v>2911.695147221506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>50</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0.5</v>
+      </c>
+      <c r="G127">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H127">
+        <v>1038.459391672059</v>
+      </c>
+      <c r="I127">
+        <v>1287.472492680251</v>
+      </c>
+      <c r="J127">
+        <v>2773.410451668577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>50</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0.1</v>
+      </c>
+      <c r="G128">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H128">
+        <v>1168.619560678488</v>
+      </c>
+      <c r="I128">
+        <v>1527.47862060273</v>
+      </c>
+      <c r="J128">
+        <v>3140.558613213586</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>50</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0.3</v>
+      </c>
+      <c r="G129">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H129">
+        <v>1047.673127377994</v>
+      </c>
+      <c r="I129">
+        <v>1385.153846991749</v>
+      </c>
+      <c r="J129">
+        <v>3221.600813092428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0.5</v>
+      </c>
+      <c r="G130">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H130">
+        <v>1035.568095869703</v>
+      </c>
+      <c r="I130">
+        <v>1421.553382867511</v>
+      </c>
+      <c r="J130">
+        <v>2967.93140500688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>0.1</v>
+      </c>
+      <c r="G131">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H131">
+        <v>916.5506867144819</v>
+      </c>
+      <c r="I131">
+        <v>1169.636475787305</v>
+      </c>
+      <c r="J131">
+        <v>2902.905315401876</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>0.3</v>
+      </c>
+      <c r="G132">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H132">
+        <v>888.9289606231252</v>
+      </c>
+      <c r="I132">
+        <v>1101.379959710694</v>
+      </c>
+      <c r="J132">
+        <v>2904.098885539379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>0.5</v>
+      </c>
+      <c r="G133">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H133">
+        <v>936.9436511981353</v>
+      </c>
+      <c r="I133">
+        <v>1168.629818549349</v>
+      </c>
+      <c r="J133">
+        <v>2711.071988425352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>0.1</v>
+      </c>
+      <c r="G134">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H134">
+        <v>1037.419805540215</v>
+      </c>
+      <c r="I134">
+        <v>1407.484557766246</v>
+      </c>
+      <c r="J134">
+        <v>2754.067841228389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>0.3</v>
+      </c>
+      <c r="G135">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H135">
+        <v>923.9864869505132</v>
+      </c>
+      <c r="I135">
+        <v>1121.377611846732</v>
+      </c>
+      <c r="J135">
+        <v>2745.514242204259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>0.5</v>
+      </c>
+      <c r="G136">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H136">
+        <v>985.6248806544705</v>
+      </c>
+      <c r="I136">
+        <v>1231.127072580437</v>
+      </c>
+      <c r="J136">
+        <v>2711.122883275382</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0.1</v>
+      </c>
+      <c r="G137">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H137">
+        <v>876.2347991804648</v>
+      </c>
+      <c r="I137">
+        <v>1511.901543489171</v>
+      </c>
+      <c r="J137">
+        <v>3240.223746843673</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0.3</v>
+      </c>
+      <c r="G138">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H138">
+        <v>882.7445003864267</v>
+      </c>
+      <c r="I138">
+        <v>1300.168283543837</v>
+      </c>
+      <c r="J138">
+        <v>3287.933112332312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0.5</v>
+      </c>
+      <c r="G139">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H139">
+        <v>890.1193875067818</v>
+      </c>
+      <c r="I139">
+        <v>1208.925038353655</v>
+      </c>
+      <c r="J139">
+        <v>3181.414481418145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>0.1</v>
+      </c>
+      <c r="G140">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H140">
+        <v>945.7162657714321</v>
+      </c>
+      <c r="I140">
+        <v>1408.993835936455</v>
+      </c>
+      <c r="J140">
+        <v>2886.122594407938</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>0.3</v>
+      </c>
+      <c r="G141">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H141">
+        <v>911.6504100038389</v>
+      </c>
+      <c r="I141">
+        <v>1209.766191645297</v>
+      </c>
+      <c r="J141">
+        <v>2750.698665063941</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>0.5</v>
+      </c>
+      <c r="G142">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H142">
+        <v>914.7323022067956</v>
+      </c>
+      <c r="I142">
+        <v>1182.113309267511</v>
+      </c>
+      <c r="J142">
+        <v>2821.056861047005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>100</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>0.1</v>
+      </c>
+      <c r="G143">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H143">
+        <v>987.1332027042042</v>
+      </c>
+      <c r="I143">
+        <v>1424.626595683085</v>
+      </c>
+      <c r="J143">
+        <v>2791.574505507265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>0.3</v>
+      </c>
+      <c r="G144">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H144">
+        <v>944.1014305785666</v>
+      </c>
+      <c r="I144">
+        <v>1340.25921299272</v>
+      </c>
+      <c r="J144">
+        <v>2830.532272936096</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>0.5</v>
+      </c>
+      <c r="G145">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H145">
+        <v>936.8978272673919</v>
+      </c>
+      <c r="I145">
+        <v>1259.214793556224</v>
+      </c>
+      <c r="J145">
+        <v>2849.435554233577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0.1</v>
+      </c>
+      <c r="G146">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H146">
+        <v>1009.794466991662</v>
+      </c>
+      <c r="I146">
+        <v>1284.888250772165</v>
+      </c>
+      <c r="J146">
+        <v>3194.250760037989</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0.3</v>
+      </c>
+      <c r="G147">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H147">
+        <v>975.3498015026181</v>
+      </c>
+      <c r="I147">
+        <v>1265.917161416843</v>
+      </c>
+      <c r="J147">
+        <v>3202.566908005236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0.5</v>
+      </c>
+      <c r="G148">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H148">
+        <v>940.2497066284043</v>
+      </c>
+      <c r="I148">
+        <v>1221.295664360606</v>
+      </c>
+      <c r="J148">
+        <v>3312.906932453239</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0.1</v>
+      </c>
+      <c r="G149">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H149">
+        <v>879.4468390177136</v>
+      </c>
+      <c r="I149">
+        <v>1174.581204957039</v>
+      </c>
+      <c r="J149">
+        <v>2774.929813227711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>0.3</v>
+      </c>
+      <c r="G150">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H150">
+        <v>997.4765039632872</v>
+      </c>
+      <c r="I150">
+        <v>1318.091870046075</v>
+      </c>
+      <c r="J150">
+        <v>2740.665221268863</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>0.5</v>
+      </c>
+      <c r="G151">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H151">
+        <v>941.55586482477</v>
+      </c>
+      <c r="I151">
+        <v>1208.453131707069</v>
+      </c>
+      <c r="J151">
+        <v>2777.633272755912</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>0.1</v>
+      </c>
+      <c r="G152">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H152">
+        <v>915.4584405734361</v>
+      </c>
+      <c r="I152">
+        <v>1144.232831544295</v>
+      </c>
+      <c r="J152">
+        <v>2686.679295797534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <v>100</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>0.3</v>
+      </c>
+      <c r="G153">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H153">
+        <v>916.5712828072745</v>
+      </c>
+      <c r="I153">
+        <v>1121.391910862012</v>
+      </c>
+      <c r="J153">
+        <v>2691.285256342269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>0.5</v>
+      </c>
+      <c r="G154">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H154">
+        <v>976.2490411794365</v>
+      </c>
+      <c r="I154">
+        <v>1201.415142010904</v>
+      </c>
+      <c r="J154">
+        <v>2734.119975012066</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0.1</v>
+      </c>
+      <c r="G155">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H155">
+        <v>882.7821567883836</v>
+      </c>
+      <c r="I155">
+        <v>1102.933061721612</v>
+      </c>
+      <c r="J155">
+        <v>3140.186717676306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0.3</v>
+      </c>
+      <c r="G156">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H156">
+        <v>949.1175004239986</v>
+      </c>
+      <c r="I156">
+        <v>1208.558257639715</v>
+      </c>
+      <c r="J156">
+        <v>3127.225507791956</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>50</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0.5</v>
+      </c>
+      <c r="G157">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H157">
+        <v>963.5270940820157</v>
+      </c>
+      <c r="I157">
+        <v>1228.240875031927</v>
+      </c>
+      <c r="J157">
+        <v>3289.927281565573</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>0.1</v>
+      </c>
+      <c r="G158">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H158">
+        <v>993.4126606754827</v>
+      </c>
+      <c r="I158">
+        <v>1210.00245562452</v>
+      </c>
+      <c r="J158">
+        <v>2752.98532717916</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>100</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>0.3</v>
+      </c>
+      <c r="G159">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H159">
+        <v>1074.0886627666</v>
+      </c>
+      <c r="I159">
+        <v>1367.494692536097</v>
+      </c>
+      <c r="J159">
+        <v>3033.869691706758</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>100</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>0.5</v>
+      </c>
+      <c r="G160">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H160">
+        <v>964.7701691076606</v>
+      </c>
+      <c r="I160">
+        <v>1213.554179885084</v>
+      </c>
+      <c r="J160">
+        <v>2802.609745140591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+      <c r="C161">
+        <v>100</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>0.1</v>
+      </c>
+      <c r="G161">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H161">
+        <v>953.0364827003477</v>
+      </c>
+      <c r="I161">
+        <v>1218.433307501028</v>
+      </c>
+      <c r="J161">
+        <v>2721.384154656135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>0.3</v>
+      </c>
+      <c r="G162">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H162">
+        <v>974.4305045370776</v>
+      </c>
+      <c r="I162">
+        <v>1245.932469858554</v>
+      </c>
+      <c r="J162">
+        <v>2788.422296373356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>0.5</v>
+      </c>
+      <c r="G163">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H163">
+        <v>968.9549775864596</v>
+      </c>
+      <c r="I163">
+        <v>1270.676405503604</v>
+      </c>
+      <c r="J163">
+        <v>2765.90953229178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>100</v>
+      </c>
+      <c r="C164">
+        <v>20</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0.1</v>
+      </c>
+      <c r="G164">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H164">
+        <v>1078.391438444534</v>
+      </c>
+      <c r="I164">
+        <v>1943.608263917668</v>
+      </c>
+      <c r="J164">
+        <v>3167.054421384006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>100</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0.3</v>
+      </c>
+      <c r="G165">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H165">
+        <v>979.150166338909</v>
+      </c>
+      <c r="I165">
+        <v>1756.515188989043</v>
+      </c>
+      <c r="J165">
+        <v>3187.974897217991</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>100</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0.5</v>
+      </c>
+      <c r="G166">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H166">
+        <v>955.4713247579725</v>
+      </c>
+      <c r="I166">
+        <v>1673.25983350638</v>
+      </c>
+      <c r="J166">
+        <v>3244.390921543522</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>100</v>
+      </c>
+      <c r="C167">
+        <v>20</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>0.1</v>
+      </c>
+      <c r="G167">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H167">
+        <v>1104.997478051545</v>
+      </c>
+      <c r="I167">
+        <v>1740.85428904449</v>
+      </c>
+      <c r="J167">
+        <v>2855.775019588374</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>100</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>0.3</v>
+      </c>
+      <c r="G168">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H168">
+        <v>1029.671757497205</v>
+      </c>
+      <c r="I168">
+        <v>1622.644113964401</v>
+      </c>
+      <c r="J168">
+        <v>2983.832373800353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>100</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>0.5</v>
+      </c>
+      <c r="G169">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H169">
+        <v>976.4113950603432</v>
+      </c>
+      <c r="I169">
+        <v>1542.847555563252</v>
+      </c>
+      <c r="J169">
+        <v>2876.513372790437</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>100</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>0.1</v>
+      </c>
+      <c r="G170">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H170">
+        <v>1119.195277800902</v>
+      </c>
+      <c r="I170">
+        <v>1703.686180413655</v>
+      </c>
+      <c r="J170">
+        <v>2723.770708969125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>100</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>0.3</v>
+      </c>
+      <c r="G171">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H171">
+        <v>984.7378246456503</v>
+      </c>
+      <c r="I171">
+        <v>1605.196232238822</v>
+      </c>
+      <c r="J171">
+        <v>2783.89460974265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>100</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>0.5</v>
+      </c>
+      <c r="G172">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H172">
+        <v>999.7597378279734</v>
+      </c>
+      <c r="I172">
+        <v>1570.832589138933</v>
+      </c>
+      <c r="J172">
+        <v>2840.351272255667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>100</v>
+      </c>
+      <c r="C173">
+        <v>20</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0.1</v>
+      </c>
+      <c r="G173">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H173">
+        <v>908.341862445182</v>
+      </c>
+      <c r="I173">
+        <v>1343.267602127587</v>
+      </c>
+      <c r="J173">
+        <v>3164.908884336115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>100</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0.3</v>
+      </c>
+      <c r="G174">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H174">
+        <v>931.2533039997561</v>
+      </c>
+      <c r="I174">
+        <v>1350.703771786817</v>
+      </c>
+      <c r="J174">
+        <v>3184.979680675656</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>100</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0.5</v>
+      </c>
+      <c r="G175">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H175">
+        <v>897.4085988327565</v>
+      </c>
+      <c r="I175">
+        <v>1266.273837797148</v>
+      </c>
+      <c r="J175">
+        <v>3352.721129689555</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>100</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>0.1</v>
+      </c>
+      <c r="G176">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H176">
+        <v>953.1434175755694</v>
+      </c>
+      <c r="I176">
+        <v>1421.490488200867</v>
+      </c>
+      <c r="J176">
+        <v>2907.524761197022</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>100</v>
+      </c>
+      <c r="C177">
+        <v>20</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>0.3</v>
+      </c>
+      <c r="G177">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H177">
+        <v>957.3399127578116</v>
+      </c>
+      <c r="I177">
+        <v>1305.164308736554</v>
+      </c>
+      <c r="J177">
+        <v>2916.6309212648</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>100</v>
+      </c>
+      <c r="C178">
+        <v>20</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>0.5</v>
+      </c>
+      <c r="G178">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H178">
+        <v>999.9091504346427</v>
+      </c>
+      <c r="I178">
+        <v>1319.387975430919</v>
+      </c>
+      <c r="J178">
+        <v>2839.002382821542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>100</v>
+      </c>
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>0.1</v>
+      </c>
+      <c r="G179">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H179">
+        <v>991.0975089226098</v>
+      </c>
+      <c r="I179">
+        <v>1358.630857396895</v>
+      </c>
+      <c r="J179">
+        <v>2779.885989901709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>100</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <v>0.3</v>
+      </c>
+      <c r="G180">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H180">
+        <v>978.0411815398079</v>
+      </c>
+      <c r="I180">
+        <v>1278.768079590848</v>
+      </c>
+      <c r="J180">
+        <v>2858.014761616511</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>100</v>
+      </c>
+      <c r="C181">
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>0.5</v>
+      </c>
+      <c r="G181">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H181">
+        <v>1021.356007745223</v>
+      </c>
+      <c r="I181">
+        <v>1362.454478281856</v>
+      </c>
+      <c r="J181">
+        <v>2900.291474715415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>100</v>
+      </c>
+      <c r="C182">
+        <v>20</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0.1</v>
+      </c>
+      <c r="G182">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H182">
+        <v>905.6350070804838</v>
+      </c>
+      <c r="I182">
+        <v>1333.70258666234</v>
+      </c>
+      <c r="J182">
+        <v>3498.916864821986</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>100</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0.3</v>
+      </c>
+      <c r="G183">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H183">
+        <v>933.0107711436669</v>
+      </c>
+      <c r="I183">
+        <v>1296.074039450038</v>
+      </c>
+      <c r="J183">
+        <v>3178.321859972384</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>100</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0.5</v>
+      </c>
+      <c r="G184">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H184">
+        <v>927.074722929862</v>
+      </c>
+      <c r="I184">
+        <v>1342.835550067259</v>
+      </c>
+      <c r="J184">
+        <v>3107.473955027892</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>100</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>0.1</v>
+      </c>
+      <c r="G185">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H185">
+        <v>922.5259257751788</v>
+      </c>
+      <c r="I185">
+        <v>1268.31874500661</v>
+      </c>
+      <c r="J185">
+        <v>2881.906139845939</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>100</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>0.3</v>
+      </c>
+      <c r="G186">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H186">
+        <v>905.7385504627166</v>
+      </c>
+      <c r="I186">
+        <v>1243.329363482464</v>
+      </c>
+      <c r="J186">
+        <v>2768.551274851369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>100</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>0.5</v>
+      </c>
+      <c r="G187">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H187">
+        <v>940.6656073353074</v>
+      </c>
+      <c r="I187">
+        <v>1291.295430941281</v>
+      </c>
+      <c r="J187">
+        <v>2866.055018009003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>100</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>0.1</v>
+      </c>
+      <c r="G188">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H188">
+        <v>991.6539476246439</v>
+      </c>
+      <c r="I188">
+        <v>1341.96638698367</v>
+      </c>
+      <c r="J188">
+        <v>2866.97902914202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>100</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>0.3</v>
+      </c>
+      <c r="G189">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H189">
+        <v>974.35901264643</v>
+      </c>
+      <c r="I189">
+        <v>1274.929406486682</v>
+      </c>
+      <c r="J189">
+        <v>2741.730027699079</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>100</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>0.5</v>
+      </c>
+      <c r="G190">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H190">
+        <v>1067.934461632018</v>
+      </c>
+      <c r="I190">
+        <v>1370.148670170477</v>
+      </c>
+      <c r="J190">
+        <v>2727.322654381368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>100</v>
+      </c>
+      <c r="C191">
+        <v>50</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0.1</v>
+      </c>
+      <c r="G191">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H191">
+        <v>921.2869458298385</v>
+      </c>
+      <c r="I191">
+        <v>1628.602481319398</v>
+      </c>
+      <c r="J191">
+        <v>3244.179333431114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>100</v>
+      </c>
+      <c r="C192">
+        <v>50</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0.3</v>
+      </c>
+      <c r="G192">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H192">
+        <v>884.6784767418737</v>
+      </c>
+      <c r="I192">
+        <v>1429.208749432886</v>
+      </c>
+      <c r="J192">
+        <v>3242.542862006352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>100</v>
+      </c>
+      <c r="C193">
+        <v>50</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0.5</v>
+      </c>
+      <c r="G193">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H193">
+        <v>882.1381329906477</v>
+      </c>
+      <c r="I193">
+        <v>1343.383506430425</v>
+      </c>
+      <c r="J193">
+        <v>3154.734385537505</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>100</v>
+      </c>
+      <c r="C194">
+        <v>50</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0.1</v>
+      </c>
+      <c r="G194">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H194">
+        <v>966.0536325100155</v>
+      </c>
+      <c r="I194">
+        <v>1539.600274724436</v>
+      </c>
+      <c r="J194">
+        <v>2815.013779571812</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>100</v>
+      </c>
+      <c r="C195">
+        <v>50</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>0.3</v>
+      </c>
+      <c r="G195">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H195">
+        <v>947.273449101856</v>
+      </c>
+      <c r="I195">
+        <v>1411.940270431952</v>
+      </c>
+      <c r="J195">
+        <v>2872.392236378552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>100</v>
+      </c>
+      <c r="C196">
+        <v>50</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0.5</v>
+      </c>
+      <c r="G196">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H196">
+        <v>918.6362840730083</v>
+      </c>
+      <c r="I196">
+        <v>1302.028359725747</v>
+      </c>
+      <c r="J196">
+        <v>2870.670903511912</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>100</v>
+      </c>
+      <c r="C197">
+        <v>50</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>0.1</v>
+      </c>
+      <c r="G197">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H197">
+        <v>1055.861786714469</v>
+      </c>
+      <c r="I197">
+        <v>1556.453388448442</v>
+      </c>
+      <c r="J197">
+        <v>2773.430656952066</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>100</v>
+      </c>
+      <c r="C198">
+        <v>50</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>0.3</v>
+      </c>
+      <c r="G198">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H198">
+        <v>989.9646169628813</v>
+      </c>
+      <c r="I198">
+        <v>1446.142427633336</v>
+      </c>
+      <c r="J198">
+        <v>2867.141671115061</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>100</v>
+      </c>
+      <c r="C199">
+        <v>50</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>0.5</v>
+      </c>
+      <c r="G199">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H199">
+        <v>968.0760174943587</v>
+      </c>
+      <c r="I199">
+        <v>1380.021312812946</v>
+      </c>
+      <c r="J199">
+        <v>2793.146746097512</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>100</v>
+      </c>
+      <c r="C200">
+        <v>50</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0.1</v>
+      </c>
+      <c r="G200">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H200">
+        <v>921.8185754946194</v>
+      </c>
+      <c r="I200">
+        <v>1279.112964188578</v>
+      </c>
+      <c r="J200">
+        <v>3046.792406079609</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>100</v>
+      </c>
+      <c r="C201">
+        <v>50</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0.3</v>
+      </c>
+      <c r="G201">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H201">
+        <v>920.020624927531</v>
+      </c>
+      <c r="I201">
+        <v>1233.793160140709</v>
+      </c>
+      <c r="J201">
+        <v>3092.796009657067</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>100</v>
+      </c>
+      <c r="C202">
+        <v>50</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0.5</v>
+      </c>
+      <c r="G202">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H202">
+        <v>940.3140912718559</v>
+      </c>
+      <c r="I202">
+        <v>1244.031465318752</v>
+      </c>
+      <c r="J202">
+        <v>3163.076442699849</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>100</v>
+      </c>
+      <c r="C203">
+        <v>50</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>0.1</v>
+      </c>
+      <c r="G203">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H203">
+        <v>901.786872035657</v>
+      </c>
+      <c r="I203">
+        <v>1230.833690048667</v>
+      </c>
+      <c r="J203">
+        <v>2799.01769926575</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>100</v>
+      </c>
+      <c r="C204">
+        <v>50</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>0.3</v>
+      </c>
+      <c r="G204">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H204">
+        <v>971.8453423834826</v>
+      </c>
+      <c r="I204">
+        <v>1239.532521964258</v>
+      </c>
+      <c r="J204">
+        <v>2831.366776456763</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>100</v>
+      </c>
+      <c r="C205">
+        <v>50</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>0.5</v>
+      </c>
+      <c r="G205">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H205">
+        <v>946.9599532563843</v>
+      </c>
+      <c r="I205">
+        <v>1209.613588134498</v>
+      </c>
+      <c r="J205">
+        <v>2842.605458223714</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>100</v>
+      </c>
+      <c r="C206">
+        <v>50</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
+        <v>0.1</v>
+      </c>
+      <c r="G206">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H206">
+        <v>1044.630112456469</v>
+      </c>
+      <c r="I206">
+        <v>1334.073958096905</v>
+      </c>
+      <c r="J206">
+        <v>2829.929924329824</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>100</v>
+      </c>
+      <c r="C207">
+        <v>50</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>0.3</v>
+      </c>
+      <c r="G207">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H207">
+        <v>1001.722036638269</v>
+      </c>
+      <c r="I207">
+        <v>1246.614118902592</v>
+      </c>
+      <c r="J207">
+        <v>2895.165762133848</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>100</v>
+      </c>
+      <c r="C208">
+        <v>50</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>0.5</v>
+      </c>
+      <c r="G208">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H208">
+        <v>960.4227463727545</v>
+      </c>
+      <c r="I208">
+        <v>1217.521901344366</v>
+      </c>
+      <c r="J208">
+        <v>2757.090177207763</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+      <c r="C209">
+        <v>50</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0.1</v>
+      </c>
+      <c r="G209">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H209">
+        <v>965.2941274723996</v>
+      </c>
+      <c r="I209">
+        <v>1295.502804357826</v>
+      </c>
+      <c r="J209">
+        <v>3138.989594132199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>100</v>
+      </c>
+      <c r="C210">
+        <v>50</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0.3</v>
+      </c>
+      <c r="G210">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H210">
+        <v>873.4224715510315</v>
+      </c>
+      <c r="I210">
+        <v>1129.973444873162</v>
+      </c>
+      <c r="J210">
+        <v>3128.53136389376</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>100</v>
+      </c>
+      <c r="C211">
+        <v>50</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0.5</v>
+      </c>
+      <c r="G211">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H211">
+        <v>1022.662918826357</v>
+      </c>
+      <c r="I211">
+        <v>1333.425805899331</v>
+      </c>
+      <c r="J211">
+        <v>3160.190489991154</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>100</v>
+      </c>
+      <c r="C212">
+        <v>50</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>0.1</v>
+      </c>
+      <c r="G212">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H212">
+        <v>972.0002505386337</v>
+      </c>
+      <c r="I212">
+        <v>1246.442025305036</v>
+      </c>
+      <c r="J212">
+        <v>2725.704079707806</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>100</v>
+      </c>
+      <c r="C213">
+        <v>50</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>0.3</v>
+      </c>
+      <c r="G213">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H213">
+        <v>876.234799180465</v>
+      </c>
+      <c r="I213">
+        <v>1091.432340061245</v>
+      </c>
+      <c r="J213">
+        <v>2817.420385449916</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>100</v>
+      </c>
+      <c r="C214">
+        <v>50</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>0.5</v>
+      </c>
+      <c r="G214">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H214">
+        <v>917.2135887786317</v>
+      </c>
+      <c r="I214">
+        <v>1134.413188795648</v>
+      </c>
+      <c r="J214">
+        <v>2731.039858978379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>100</v>
+      </c>
+      <c r="C215">
+        <v>50</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+      <c r="F215">
+        <v>0.1</v>
+      </c>
+      <c r="G215">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H215">
+        <v>891.6700325974216</v>
+      </c>
+      <c r="I215">
+        <v>1148.468815450542</v>
+      </c>
+      <c r="J215">
+        <v>2805.553928160725</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>100</v>
+      </c>
+      <c r="C216">
+        <v>50</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>0.3</v>
+      </c>
+      <c r="G216">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H216">
+        <v>1046.784644004717</v>
+      </c>
+      <c r="I216">
+        <v>1389.924525198212</v>
+      </c>
+      <c r="J216">
+        <v>2875.592004547598</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>100</v>
+      </c>
+      <c r="C217">
+        <v>50</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>0.5</v>
+      </c>
+      <c r="G217">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H217">
+        <v>1051.418523704159</v>
+      </c>
+      <c r="I217">
+        <v>1318.907880897938</v>
+      </c>
+      <c r="J217">
+        <v>2736.536908116077</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>100</v>
+      </c>
+      <c r="C218">
+        <v>100</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0.1</v>
+      </c>
+      <c r="G218">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H218">
+        <v>899.4495791211415</v>
+      </c>
+      <c r="I218">
+        <v>1455.390616138863</v>
+      </c>
+      <c r="J218">
+        <v>3413.539709965482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>100</v>
+      </c>
+      <c r="C219">
+        <v>100</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>0.3</v>
+      </c>
+      <c r="G219">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H219">
+        <v>868.2049476495729</v>
+      </c>
+      <c r="I219">
+        <v>1281.49649549983</v>
+      </c>
+      <c r="J219">
+        <v>3114.140750819237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>100</v>
+      </c>
+      <c r="C220">
+        <v>100</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>0.5</v>
+      </c>
+      <c r="G220">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H220">
+        <v>838.764124978352</v>
+      </c>
+      <c r="I220">
+        <v>1237.917392879877</v>
+      </c>
+      <c r="J220">
+        <v>3175.338631429914</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>100</v>
+      </c>
+      <c r="C221">
+        <v>100</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>0.1</v>
+      </c>
+      <c r="G221">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H221">
+        <v>940.0725852343521</v>
+      </c>
+      <c r="I221">
+        <v>1411.099459356779</v>
+      </c>
+      <c r="J221">
+        <v>2797.916449786535</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>100</v>
+      </c>
+      <c r="C222">
+        <v>100</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>0.3</v>
+      </c>
+      <c r="G222">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H222">
+        <v>913.1248141351236</v>
+      </c>
+      <c r="I222">
+        <v>1249.940483044537</v>
+      </c>
+      <c r="J222">
+        <v>2826.329859382765</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>100</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>0.5</v>
+      </c>
+      <c r="G223">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H223">
+        <v>920.5335538531497</v>
+      </c>
+      <c r="I223">
+        <v>1184.457746004899</v>
+      </c>
+      <c r="J223">
+        <v>2811.613966297373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>100</v>
+      </c>
+      <c r="C224">
+        <v>100</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>0.1</v>
+      </c>
+      <c r="G224">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H224">
+        <v>988.0806273471273</v>
+      </c>
+      <c r="I224">
+        <v>1465.827756366115</v>
+      </c>
+      <c r="J224">
+        <v>2811.208878266094</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>100</v>
+      </c>
+      <c r="C225">
+        <v>100</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>3</v>
+      </c>
+      <c r="F225">
+        <v>0.3</v>
+      </c>
+      <c r="G225">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H225">
+        <v>924.7323022067956</v>
+      </c>
+      <c r="I225">
+        <v>1312.466545449818</v>
+      </c>
+      <c r="J225">
+        <v>2756.807725276608</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>100</v>
+      </c>
+      <c r="C226">
+        <v>100</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>0.5</v>
+      </c>
+      <c r="G226">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H226">
+        <v>936.8978272673919</v>
+      </c>
+      <c r="I226">
+        <v>1314.514126518547</v>
+      </c>
+      <c r="J226">
+        <v>2752.978772988714</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>100</v>
+      </c>
+      <c r="C227">
+        <v>100</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0.1</v>
+      </c>
+      <c r="G227">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H227">
+        <v>915.8201225065858</v>
+      </c>
+      <c r="I227">
+        <v>1227.003777861939</v>
+      </c>
+      <c r="J227">
+        <v>3096.432215827562</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>100</v>
+      </c>
+      <c r="C228">
+        <v>100</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0.3</v>
+      </c>
+      <c r="G228">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H228">
+        <v>860.2051405578848</v>
+      </c>
+      <c r="I228">
+        <v>1081.530797590424</v>
+      </c>
+      <c r="J228">
+        <v>3132.708007294553</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>100</v>
+      </c>
+      <c r="C229">
+        <v>100</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0.5</v>
+      </c>
+      <c r="G229">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H229">
+        <v>913.2780343774217</v>
+      </c>
+      <c r="I229">
+        <v>1198.806506162283</v>
+      </c>
+      <c r="J229">
+        <v>3160.390478867861</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>100</v>
+      </c>
+      <c r="C230">
+        <v>100</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>0.1</v>
+      </c>
+      <c r="G230">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H230">
+        <v>946.2310010026631</v>
+      </c>
+      <c r="I230">
+        <v>1190.743742723569</v>
+      </c>
+      <c r="J230">
+        <v>2854.527542956377</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>100</v>
+      </c>
+      <c r="C231">
+        <v>100</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>0.3</v>
+      </c>
+      <c r="G231">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H231">
+        <v>930.2308440437417</v>
+      </c>
+      <c r="I231">
+        <v>1195.208117745164</v>
+      </c>
+      <c r="J231">
+        <v>2806.405402913665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>100</v>
+      </c>
+      <c r="C232">
+        <v>100</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>0.5</v>
+      </c>
+      <c r="G232">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H232">
+        <v>921.0985938256285</v>
+      </c>
+      <c r="I232">
+        <v>1165.042018909228</v>
+      </c>
+      <c r="J232">
+        <v>2825.252016831117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>100</v>
+      </c>
+      <c r="C233">
+        <v>100</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>0.1</v>
+      </c>
+      <c r="G233">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H233">
+        <v>1078.180945651349</v>
+      </c>
+      <c r="I233">
+        <v>1391.474184155147</v>
+      </c>
+      <c r="J233">
+        <v>2734.868960948328</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>100</v>
+      </c>
+      <c r="C234">
+        <v>100</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>0.3</v>
+      </c>
+      <c r="G234">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H234">
+        <v>926.1055600953516</v>
+      </c>
+      <c r="I234">
+        <v>1100.593463652399</v>
+      </c>
+      <c r="J234">
+        <v>2772.347830259108</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>100</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235">
+        <v>0.5</v>
+      </c>
+      <c r="G235">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H235">
+        <v>1047.050917492379</v>
+      </c>
+      <c r="I235">
+        <v>1329.393216490326</v>
+      </c>
+      <c r="J235">
+        <v>2919.797990185364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>100</v>
+      </c>
+      <c r="C236">
+        <v>100</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0.1</v>
+      </c>
+      <c r="G236">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H236">
+        <v>900.2419034768261</v>
+      </c>
+      <c r="I236">
+        <v>1180.060079070971</v>
+      </c>
+      <c r="J236">
+        <v>3139.068075419194</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>100</v>
+      </c>
+      <c r="C237">
+        <v>100</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0.3</v>
+      </c>
+      <c r="G237">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H237">
+        <v>923.1625749553402</v>
+      </c>
+      <c r="I237">
+        <v>1206.516308093074</v>
+      </c>
+      <c r="J237">
+        <v>3377.903118838773</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>100</v>
+      </c>
+      <c r="C238">
+        <v>100</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0.5</v>
+      </c>
+      <c r="G238">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H238">
+        <v>961.1601028977632</v>
+      </c>
+      <c r="I238">
+        <v>1239.740286349366</v>
+      </c>
+      <c r="J238">
+        <v>3279.14189600366</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>100</v>
+      </c>
+      <c r="C239">
+        <v>100</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>0.1</v>
+      </c>
+      <c r="G239">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H239">
+        <v>952.4769910670492</v>
+      </c>
+      <c r="I239">
+        <v>1186.689274848708</v>
+      </c>
+      <c r="J239">
+        <v>2753.91778137277</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>100</v>
+      </c>
+      <c r="C240">
+        <v>100</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>0.3</v>
+      </c>
+      <c r="G240">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H240">
+        <v>915.1824594950823</v>
+      </c>
+      <c r="I240">
+        <v>1193.934862363673</v>
+      </c>
+      <c r="J240">
+        <v>2798.154042050548</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>100</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>0.5</v>
+      </c>
+      <c r="G241">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H241">
+        <v>985.0523357311952</v>
+      </c>
+      <c r="I241">
+        <v>1285.041884644903</v>
+      </c>
+      <c r="J241">
+        <v>2877.405020456036</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>100</v>
+      </c>
+      <c r="C242">
+        <v>100</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242">
+        <v>0.1</v>
+      </c>
+      <c r="G242">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H242">
+        <v>1032.799964815481</v>
+      </c>
+      <c r="I242">
+        <v>1328.608836241985</v>
+      </c>
+      <c r="J242">
+        <v>2753.091732743568</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>100</v>
+      </c>
+      <c r="C243">
+        <v>100</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>0.3</v>
+      </c>
+      <c r="G243">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H243">
+        <v>1038.91512125771</v>
+      </c>
+      <c r="I243">
+        <v>1321.952507805182</v>
+      </c>
+      <c r="J243">
+        <v>2835.986323789031</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>100</v>
+      </c>
+      <c r="C244">
+        <v>100</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>0.5</v>
+      </c>
+      <c r="G244">
+        <v>0.0005345610276795526</v>
+      </c>
+      <c r="H244">
+        <v>951.0704381000138</v>
+      </c>
+      <c r="I244">
+        <v>1161.947059738556</v>
+      </c>
+      <c r="J244">
+        <v>2779.634419855925</v>
       </c>
     </row>
   </sheetData>
